--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Wordpress Site" sheetId="1" r:id="rId1"/>
     <sheet name="Shopify Site" sheetId="2" r:id="rId2"/>
     <sheet name="Raw Dev - Business Site" sheetId="3" r:id="rId3"/>
-    <sheet name="Raw Dev - Ecomm Site" sheetId="5" r:id="rId4"/>
-    <sheet name="Raw Dev - Site Architecture" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId4"/>
+    <sheet name="Raw Dev - Ecomm Site" sheetId="5" r:id="rId5"/>
+    <sheet name="Raw Dev - Site Architecture" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="85">
   <si>
     <t>Check efficient way of deploying Wordpress site on different env</t>
   </si>
@@ -51,9 +52,6 @@
     <t>Steps towards target</t>
   </si>
   <si>
-    <t>Create a NodeJS Server which contain CRUD operations regarding the Contact Us and Blogs feature</t>
-  </si>
-  <si>
     <t>Create Website structure on React which contains Home, About Us, Products, Blogs, Carrier and Contact Us Pages</t>
   </si>
   <si>
@@ -250,16 +248,59 @@
   </si>
   <si>
     <t>APIs should take structure name or identifer in order to differentiate them while binding the re-usable components</t>
+  </si>
+  <si>
+    <t>Use npm install like command to set the re-usable components only once without calling APIs everytime</t>
+  </si>
+  <si>
+    <t>CSS files should be contain by the structure file, re-usable components saved inside mongo will only contain the class and ids</t>
+  </si>
+  <si>
+    <t>To save the content of each re-usable components w.r.t customer will be handle by creating and configuring customer's own database. For now (this MVP) we will add content using insert scripts</t>
+  </si>
+  <si>
+    <t>APIs can be authenticated using the database user</t>
+  </si>
+  <si>
+    <t>Create a database on Mongo which is capable of storing re-usable components and content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a NodeJS Server which contain the APIs to pull the re-usable components and content as well as CRUD operations regarding the Contact Us and Blogs feature as well as </t>
+  </si>
+  <si>
+    <t>Learn KOA</t>
+  </si>
+  <si>
+    <t>Learn React</t>
+  </si>
+  <si>
+    <t>RND of Mongo Servers choice of own mongo server</t>
+  </si>
+  <si>
+    <t>Copy the mongodb database schema into a new database for this customer</t>
+  </si>
+  <si>
+    <t>Add content of re-usable components w.r.t customer using insert scripts</t>
+  </si>
+  <si>
+    <t>Create build and deploy all the components (front-end,back-end and db) it on QA server to Test (both front-end and back-end i-e NodeJS)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -291,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -310,7 +351,22 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -613,27 +669,27 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
@@ -648,7 +704,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
@@ -658,62 +714,62 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -744,27 +800,27 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
@@ -779,7 +835,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
@@ -789,62 +845,62 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -854,122 +910,171 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="121.109375" customWidth="1"/>
+    <col min="1" max="1" width="121.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="61.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>23</v>
+      <c r="A1" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
+      <c r="A3" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
+      <c r="A4" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
+      <c r="A5" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s">
         <v>13</v>
       </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>32</v>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -977,7 +1082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -993,7 +1098,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1003,98 +1108,98 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
         <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1102,12 +1207,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1118,68 +1223,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,19 +5,22 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmer Saeed\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\zabbix_custom\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Wordpress Site" sheetId="1" r:id="rId1"/>
     <sheet name="Shopify Site" sheetId="2" r:id="rId2"/>
     <sheet name="Raw Dev - Business Site" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId4"/>
-    <sheet name="Raw Dev - Ecomm Site" sheetId="5" r:id="rId5"/>
-    <sheet name="Raw Dev - Site Architecture" sheetId="6" r:id="rId6"/>
+    <sheet name="Raw Dev - Ecom Site" sheetId="5" r:id="rId4"/>
+    <sheet name="Raw Dev Busines Site - Approach" sheetId="6" r:id="rId5"/>
+    <sheet name="Raw Dev Ecomm Site - Approach" sheetId="10" r:id="rId6"/>
+    <sheet name="Task List" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId8"/>
+    <sheet name="InertiaSft Repo Site - Approach" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="104">
   <si>
     <t>Check efficient way of deploying Wordpress site on different env</t>
   </si>
@@ -55,9 +58,6 @@
     <t>Create Website structure on React which contains Home, About Us, Products, Blogs, Carrier and Contact Us Pages</t>
   </si>
   <si>
-    <t>Maintaine repo of pre-built Sliders, Nav Bar, Forms, Email subscriber section, Video Player Image, Blogs grid</t>
-  </si>
-  <si>
     <t>What if, we can make it dynamic as well saving structure in db and render it as per the request</t>
   </si>
   <si>
@@ -223,9 +223,6 @@
     <t>Medium Level</t>
   </si>
   <si>
-    <t>With all the capabilities of Medium Level what if, if we save the entire html, css of our raw dev structure in the schema as well and assigning it types</t>
-  </si>
-  <si>
     <t>Each structure will know what re-usable components APIs should it call</t>
   </si>
   <si>
@@ -244,18 +241,9 @@
     <t>Fast performance APIs will be built to achieve this also passing data between back-end and front-end should not disturb the html and css of these re-usable components</t>
   </si>
   <si>
-    <t>We should Cache techniques to enhance the performance of binding re-usable components to front-end from back-end</t>
-  </si>
-  <si>
     <t>APIs should take structure name or identifer in order to differentiate them while binding the re-usable components</t>
   </si>
   <si>
-    <t>Use npm install like command to set the re-usable components only once without calling APIs everytime</t>
-  </si>
-  <si>
-    <t>CSS files should be contain by the structure file, re-usable components saved inside mongo will only contain the class and ids</t>
-  </si>
-  <si>
     <t>To save the content of each re-usable components w.r.t customer will be handle by creating and configuring customer's own database. For now (this MVP) we will add content using insert scripts</t>
   </si>
   <si>
@@ -284,6 +272,78 @@
   </si>
   <si>
     <t>Create build and deploy all the components (front-end,back-end and db) it on QA server to Test (both front-end and back-end i-e NodeJS)</t>
+  </si>
+  <si>
+    <t>CSS files should be contain by the structure it self, re-usable components saved inside mongo will only contain the class and ids</t>
+  </si>
+  <si>
+    <t>Sit with asjad to check the injection of re-usable components</t>
+  </si>
+  <si>
+    <t>Ask management to list the re-usable component we will provide</t>
+  </si>
+  <si>
+    <t>Ask management to share the theme idea for wordpress business site, ecommerce site, raw dev business site, raw ecommerce site</t>
+  </si>
+  <si>
+    <t>Providing hosting machines to create enviornments.</t>
+  </si>
+  <si>
+    <t>Nav Bars</t>
+  </si>
+  <si>
+    <t>https://www.mockplus.com/blog/post/bootstrap-navbar-template</t>
+  </si>
+  <si>
+    <t>Approach 1</t>
+  </si>
+  <si>
+    <t>For Demo site Contact Us Forms, Login Signup Forms should be handle in a sense that It will not call APIs</t>
+  </si>
+  <si>
+    <t>We should use cache techniques to enhance the performance of binding re-usable components to front-end from back-end</t>
+  </si>
+  <si>
+    <t>Approach 2</t>
+  </si>
+  <si>
+    <t>For this we have to manage the identification of re-usable components by developing custom logic</t>
+  </si>
+  <si>
+    <t>Re-usable components will contain html and css classes or may be css files as well. For this part we have two options either putting css files of re-usable components along with structure files, Secondly we should put css files of re-usable components along with the re-usable components.</t>
+  </si>
+  <si>
+    <t>For this we will add content in the re-usable component after adding them using the npm install command</t>
+  </si>
+  <si>
+    <t>We will use github repository and npm plugin to store and organize the re-usable components files. This will help in adding re-usable compnents to our pre-built structure by executing npm install commands. This addition will be once at a time no need to get re-usable components everytime via API calls.</t>
+  </si>
+  <si>
+    <t>Approach-1 or Approach 2 of adding re-usable components</t>
+  </si>
+  <si>
+    <t>With all the capabilities of Medium Level Approach 1 what if, if we save the entire html, css of our raw dev structure in the schema as well and assigning it types</t>
+  </si>
+  <si>
+    <t>This will help in avoiding node server if website has no requirement of dynamic site</t>
+  </si>
+  <si>
+    <t>Approach</t>
+  </si>
+  <si>
+    <t>Make use of code base of Vendure to build the basic ecommerce project</t>
+  </si>
+  <si>
+    <t>Search for re-usable components (plagirism and copyright should be consider)</t>
+  </si>
+  <si>
+    <t>Execute approach 1 or 2 in order to adding the re-usable components</t>
+  </si>
+  <si>
+    <t>Create structure similarly as in Raw Dev Business Site</t>
+  </si>
+  <si>
+    <t>Execute Approach 1 or 2</t>
   </si>
 </sst>
 </file>
@@ -299,8 +359,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -329,8 +390,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -365,11 +427,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -669,27 +730,27 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
@@ -704,7 +765,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
@@ -714,62 +775,62 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -781,7 +842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -800,27 +861,27 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
@@ -835,7 +896,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
@@ -845,62 +906,62 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -910,10 +971,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -924,7 +985,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -934,12 +995,12 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -947,100 +1008,85 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>11</v>
+      <c r="A10" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
+      <c r="A12" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>18</v>
+      <c r="A15" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
+      <c r="A20" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>31</v>
+      <c r="A22" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1051,43 +1097,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="33.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1098,7 +1111,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1108,98 +1121,98 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
         <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1207,12 +1220,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1224,85 +1237,296 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>64</v>
+    </row>
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="101.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="108.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="78.109375" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C3" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="C4" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="2" t="s">
-        <v>76</v>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="90.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -9,18 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Wordpress Site" sheetId="1" r:id="rId1"/>
-    <sheet name="Shopify Site" sheetId="2" r:id="rId2"/>
-    <sheet name="Raw Dev - Business Site" sheetId="3" r:id="rId3"/>
-    <sheet name="Raw Dev - Ecom Site" sheetId="5" r:id="rId4"/>
-    <sheet name="Raw Dev Busines Site - Approach" sheetId="6" r:id="rId5"/>
-    <sheet name="Raw Dev Ecomm Site - Approach" sheetId="10" r:id="rId6"/>
-    <sheet name="Task List" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="9" r:id="rId8"/>
-    <sheet name="InertiaSft Repo Site - Approach" sheetId="8" r:id="rId9"/>
+    <sheet name="Remarks" sheetId="12" r:id="rId2"/>
+    <sheet name="Shopify Site" sheetId="2" r:id="rId3"/>
+    <sheet name="Raw Dev - Business Site" sheetId="3" r:id="rId4"/>
+    <sheet name="Raw Dev - Ecom Site" sheetId="5" r:id="rId5"/>
+    <sheet name="Reusable Components - Approach" sheetId="6" r:id="rId6"/>
+    <sheet name="InertiaSft Repo Site - Approach" sheetId="8" r:id="rId7"/>
+    <sheet name="Stack Decided" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="104">
-  <si>
-    <t>Check efficient way of deploying Wordpress site on different env</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="98">
   <si>
     <t>Wordpress Project</t>
   </si>
@@ -55,33 +51,15 @@
     <t>Steps towards target</t>
   </si>
   <si>
-    <t>Create Website structure on React which contains Home, About Us, Products, Blogs, Carrier and Contact Us Pages</t>
-  </si>
-  <si>
     <t>What if, we can make it dynamic as well saving structure in db and render it as per the request</t>
   </si>
   <si>
     <t>How to Develop ….</t>
   </si>
   <si>
-    <t>Decide the method of placing these sections / components into the structure defined above</t>
-  </si>
-  <si>
-    <t>Create build and deploy it on QA server to Test (both front-end and back-end i-e NodeJS)</t>
-  </si>
-  <si>
-    <t>Pipleline is required</t>
-  </si>
-  <si>
     <t xml:space="preserve">Create a Repo on github give an arbitary name such as Structure-X </t>
   </si>
   <si>
-    <t>Contact Us and Blog Page sections should be attached with APIs</t>
-  </si>
-  <si>
-    <t>Sections such as contact us forms, add blog forms should contain the configurable API URLs</t>
-  </si>
-  <si>
     <t>Create another Repo of Test Demo website in which these section / components are placed on our structure</t>
   </si>
   <si>
@@ -91,12 +69,6 @@
     <t>Create a project directory with customer name</t>
   </si>
   <si>
-    <t>Clone the Structure-X repo and create any dedicated (later on we can create Dev and QA branches, so that code in branch will be dedicated to that customer) branch</t>
-  </si>
-  <si>
-    <t>Place the sections and components in the structure according to the customer choice</t>
-  </si>
-  <si>
     <t>Raw Development - Business Site</t>
   </si>
   <si>
@@ -112,42 +84,12 @@
     <t>Create a NodeJS Server which contain Login and Signup, Product list and Category list operations</t>
   </si>
   <si>
-    <t>Maintaine repo of pre-built Login and Signup forms, Product list, Category list, Sliders, Nav Bar, Forms, Email subscriber section</t>
-  </si>
-  <si>
-    <t>Sections such as Login and Signup forms should contain the configurable API URLs</t>
-  </si>
-  <si>
-    <t>Clone the Ecomm-X repo and create any dedicated (later on we can create Dev and QA branches, so that code in branch will be dedicated to that customer) branch</t>
-  </si>
-  <si>
-    <t>Create another Repo of Test Demo Ecommerce website in which these section / components are placed on our structure also populate dummy product and categories in it using Db scripts</t>
-  </si>
-  <si>
-    <t>How to Develop specifying it ….</t>
-  </si>
-  <si>
-    <t>Each page have a certain design / theme in which sections are specified (such as Logo, Nav Bar, Slider, Content Section, Form section, Email subscription section, Image grids and Video Player etc) and it is robust enough that it can hold re-usable components and sections</t>
-  </si>
-  <si>
     <t>Each page have a standard design / theme of an Ecommerce site in which sections are specified (such as Logo, Nav Bar,  Product list, Category List, Slider, Content Section, Form section, Email subscription section and it is robust enough that it can hold re-usable components and sections</t>
   </si>
   <si>
-    <t xml:space="preserve">Populate Customer's product and categories using Db scripts </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a Repo on github give an arbitary name such as Wordpress Site-X </t>
-  </si>
-  <si>
-    <t>Install the wordpress default framework in it</t>
-  </si>
-  <si>
     <t>Setup Appropriate Logo and Favicon</t>
   </si>
   <si>
-    <t>Deployment on Dev Env., QA and Prodc Envs</t>
-  </si>
-  <si>
     <t>Making our Wordpress Templates ready …</t>
   </si>
   <si>
@@ -160,45 +102,15 @@
     <t>What we will do when customer comes for this type of Ecommerce Website ….</t>
   </si>
   <si>
-    <t>Create a repo with the customer name</t>
-  </si>
-  <si>
-    <t>Clone this created repo</t>
-  </si>
-  <si>
     <t>Setup decided domain and decided theme (adding content, images etc)</t>
   </si>
   <si>
-    <t>Install the Shopify default framework in it</t>
-  </si>
-  <si>
-    <t>Setup / customize customer choice theme (add content, images etc)</t>
-  </si>
-  <si>
     <t>Setup customer logo and favicon</t>
   </si>
   <si>
     <t>Add customer content, images etc</t>
   </si>
   <si>
-    <t xml:space="preserve">Push code in dedicated branch </t>
-  </si>
-  <si>
-    <t>Extract QA branch from the dedicated branch and deploy it on QA env.</t>
-  </si>
-  <si>
-    <t>Upon Passing from QA deploy it on Demo env.</t>
-  </si>
-  <si>
-    <t>Upon Passing from Demo env. Deploy it on customer machine</t>
-  </si>
-  <si>
-    <t>Install the shopify default framework in it</t>
-  </si>
-  <si>
-    <t>Setup decided domain and decided theme (adding products, categories, content, images etc)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Setup / customize customer choice theme </t>
   </si>
   <si>
@@ -217,9 +129,6 @@
     <t xml:space="preserve">We have to list down first, how many re-usable components we are looking  for. Then we will design the schema for each </t>
   </si>
   <si>
-    <t>For Demo site Contact Us Forms, Login Signup Forms, Check Out process should be handle in a sense that It will not call APIs</t>
-  </si>
-  <si>
     <t>Medium Level</t>
   </si>
   <si>
@@ -235,9 +144,6 @@
     <t>Later on after MVP we will design the forms / interface to add the re-usable components inside the mongo. Bur for MVP we will be doing using insert script</t>
   </si>
   <si>
-    <t>Re-usable components can be place in the mongo and fetch via APIs but challenge will be to minimze the render time. Robust schema should be consider in order to cover all the requirements of any re-usable components. Such as to place the navigation bar we have to look for its hyper link value etc. Aslo our schema is robust enough that it can contain the content. This approach of saving re-usable components will also help in rendering them on our another project of Inertiasoft Re-usable components repository</t>
-  </si>
-  <si>
     <t>Fast performance APIs will be built to achieve this also passing data between back-end and front-end should not disturb the html and css of these re-usable components</t>
   </si>
   <si>
@@ -250,51 +156,9 @@
     <t>APIs can be authenticated using the database user</t>
   </si>
   <si>
-    <t>Create a database on Mongo which is capable of storing re-usable components and content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a NodeJS Server which contain the APIs to pull the re-usable components and content as well as CRUD operations regarding the Contact Us and Blogs feature as well as </t>
-  </si>
-  <si>
-    <t>Learn KOA</t>
-  </si>
-  <si>
-    <t>Learn React</t>
-  </si>
-  <si>
-    <t>RND of Mongo Servers choice of own mongo server</t>
-  </si>
-  <si>
-    <t>Copy the mongodb database schema into a new database for this customer</t>
-  </si>
-  <si>
-    <t>Add content of re-usable components w.r.t customer using insert scripts</t>
-  </si>
-  <si>
-    <t>Create build and deploy all the components (front-end,back-end and db) it on QA server to Test (both front-end and back-end i-e NodeJS)</t>
-  </si>
-  <si>
     <t>CSS files should be contain by the structure it self, re-usable components saved inside mongo will only contain the class and ids</t>
   </si>
   <si>
-    <t>Sit with asjad to check the injection of re-usable components</t>
-  </si>
-  <si>
-    <t>Ask management to list the re-usable component we will provide</t>
-  </si>
-  <si>
-    <t>Ask management to share the theme idea for wordpress business site, ecommerce site, raw dev business site, raw ecommerce site</t>
-  </si>
-  <si>
-    <t>Providing hosting machines to create enviornments.</t>
-  </si>
-  <si>
-    <t>Nav Bars</t>
-  </si>
-  <si>
-    <t>https://www.mockplus.com/blog/post/bootstrap-navbar-template</t>
-  </si>
-  <si>
     <t>Approach 1</t>
   </si>
   <si>
@@ -313,44 +177,209 @@
     <t>Re-usable components will contain html and css classes or may be css files as well. For this part we have two options either putting css files of re-usable components along with structure files, Secondly we should put css files of re-usable components along with the re-usable components.</t>
   </si>
   <si>
-    <t>For this we will add content in the re-usable component after adding them using the npm install command</t>
-  </si>
-  <si>
-    <t>We will use github repository and npm plugin to store and organize the re-usable components files. This will help in adding re-usable compnents to our pre-built structure by executing npm install commands. This addition will be once at a time no need to get re-usable components everytime via API calls.</t>
-  </si>
-  <si>
-    <t>Approach-1 or Approach 2 of adding re-usable components</t>
-  </si>
-  <si>
     <t>With all the capabilities of Medium Level Approach 1 what if, if we save the entire html, css of our raw dev structure in the schema as well and assigning it types</t>
   </si>
   <si>
-    <t>This will help in avoiding node server if website has no requirement of dynamic site</t>
-  </si>
-  <si>
-    <t>Approach</t>
-  </si>
-  <si>
-    <t>Make use of code base of Vendure to build the basic ecommerce project</t>
-  </si>
-  <si>
-    <t>Search for re-usable components (plagirism and copyright should be consider)</t>
-  </si>
-  <si>
-    <t>Execute approach 1 or 2 in order to adding the re-usable components</t>
-  </si>
-  <si>
-    <t>Create structure similarly as in Raw Dev Business Site</t>
-  </si>
-  <si>
-    <t>Execute Approach 1 or 2</t>
+    <t>For this we will add content in the re-usable component after adding them</t>
+  </si>
+  <si>
+    <t>Add the customer content and images accordingly</t>
+  </si>
+  <si>
+    <t>Create a NodeJS Server which contain Contact Us and Blog operations</t>
+  </si>
+  <si>
+    <t>Clone the Wordpress Site-X repo</t>
+  </si>
+  <si>
+    <t>Setup / customize customer choice theme</t>
+  </si>
+  <si>
+    <t>Add content, images etc</t>
+  </si>
+  <si>
+    <t>Create dev-customer-x, qa-customer-x, demo-customer-x, production-customer-x branches in the repo</t>
+  </si>
+  <si>
+    <t>Upon Passing from QA push code in demo branch and on Demo env.</t>
+  </si>
+  <si>
+    <t>Upon Passing from Demo env. Live it on decided hosting machine</t>
+  </si>
+  <si>
+    <t>Push code in QA branch and env. for QA</t>
+  </si>
+  <si>
+    <t>Create a Repo on github give an arbitary name such as Wordpress Site-X</t>
+  </si>
+  <si>
+    <t>Create Dev, QA, Demo and Production branches</t>
+  </si>
+  <si>
+    <t>Use Dev branch, Install the wordpress default framework in it</t>
+  </si>
+  <si>
+    <t>Use Dev branch, Install the Shopify default framework in it</t>
+  </si>
+  <si>
+    <t>Adding products, categories, content, images etc</t>
+  </si>
+  <si>
+    <t>Setup decided domain and decided theme</t>
+  </si>
+  <si>
+    <t>Deployment on Dev Env., QA Env and Demo Env</t>
+  </si>
+  <si>
+    <t>Deployment on Dev Env.,QA, Demo Env</t>
+  </si>
+  <si>
+    <t>Clone the Shopify Site-X repo</t>
+  </si>
+  <si>
+    <t>Create Website structure on React which contains Home, About Us, Products, Blogs, Carrier and Contact Us pages</t>
+  </si>
+  <si>
+    <t>Each page have a certain design / theme in which sections are specified (such as Logo, Nav Bar, Slider, Content Section, Form section, Email subscription section, Image grids and Video Player etc) and it is robust enough that it can hold re-usable components</t>
+  </si>
+  <si>
+    <t>Contact Us and Blog Page sections should be attached with NodeJS APIs and Database (Mongodb / MySql)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Approach-1 or Approach 2 of adding re-usable components </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(define in Raw Dev Busines Site - Approach sheet)</t>
+    </r>
+  </si>
+  <si>
+    <t>Deploy the build of Test Demo website on our Demo Env. for Customers display</t>
+  </si>
+  <si>
+    <t>Clone the Structure-X repo</t>
+  </si>
+  <si>
+    <t>Use Dev branch</t>
+  </si>
+  <si>
+    <t>Use dev branch</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Add the re-usable components of customer choice using Approach-1 or Approach-2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(define in Raw Dev Busines Site - Approach sheet)</t>
+    </r>
+  </si>
+  <si>
+    <t>Clone the Ecomm Structure -X repo and create any dedicated (later on we can create Dev and QA branches, so that code in branch will be dedicated to that customer) branch</t>
+  </si>
+  <si>
+    <t>Add the customer Products, Categories and Users</t>
+  </si>
+  <si>
+    <t>Finally we have Decide Medium Level - Approach 2</t>
+  </si>
+  <si>
+    <t>Drawback of this approach is that each section will call API to render.</t>
+  </si>
+  <si>
+    <t>Re-usable components can be place in the mongo and fetch via APIs but challenge will be to minimze the render time. Robust schema should be consider in order to cover all the requirements of any re-usable components. Such as to place the navigation bar we have to look for its hyper link value etc. Also our schema is robust enough that it can contain the content. This approach of saving re-usable components will also help in rendering them on our another project of Inertiasoft Re-usable components repository</t>
+  </si>
+  <si>
+    <t>We will use github repository and npm plugin to store and organize the re-usable components files. This will help in adding re-usable compnents to our pre-built structure by executing npm install commands. This inclusion will be once at a time no need to get re-usable components everytime via API calls.</t>
+  </si>
+  <si>
+    <t>This will help in avoiding NodeJS server completly if website has no requirement of dynamic site</t>
+  </si>
+  <si>
+    <t>This approach will also helps in creating The InertiaSoft repository site.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Approach-1 or Approach 2 of adding re-usable components </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(define in Reusable Components - Approach sheet)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Add the re-usable components of customer choice using Approach-1 or Approach-2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(define in Reusable Components - Approach sheet)</t>
+    </r>
+  </si>
+  <si>
+    <t>Steps / Approach written in Raw Dev Site will be use for this Site as well</t>
+  </si>
+  <si>
+    <t>Front-End</t>
+  </si>
+  <si>
+    <t>Back-End</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hosting </t>
+  </si>
+  <si>
+    <t>Look for Lateef's Suggession</t>
+  </si>
+  <si>
+    <t>React</t>
+  </si>
+  <si>
+    <t>Node.JS (KOA framework)</t>
+  </si>
+  <si>
+    <t>Mongodb (NoSQL requirment) / MySql (RDBMS requirement)</t>
+  </si>
+  <si>
+    <t>For Static Site we can remove Back-End</t>
+  </si>
+  <si>
+    <t>For Static Site we can remove Database</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,15 +388,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,6 +413,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,9 +432,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -427,10 +468,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -709,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A4" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -722,7 +764,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -730,107 +772,102 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>44</v>
+      <c r="A6" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>17</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>42</v>
+      <c r="A14" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -840,10 +877,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A7" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -853,7 +902,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -861,107 +910,107 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>36</v>
+      <c r="A6" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>42</v>
+      <c r="A13" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>18</v>
+      <c r="A15" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>53</v>
+      <c r="A17" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>55</v>
+      <c r="A18" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>47</v>
+      <c r="A19" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -969,12 +1018,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -985,122 +1034,121 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="A2" s="9"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
+      <c r="A7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A7" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1111,256 +1159,124 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
+      <c r="A9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="71" style="2" customWidth="1"/>
-    <col min="2" max="2" width="69.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="s">
-        <v>88</v>
-      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1369,30 +1285,157 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A10" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="101.5546875" customWidth="1"/>
+    <col min="1" max="1" width="71" style="2" customWidth="1"/>
+    <col min="2" max="2" width="75.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>101</v>
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="B1" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1402,112 +1445,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="108.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="78.109375" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C3" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="C4" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1516,17 +1456,65 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>103</v>
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="60.5546875" customWidth="1"/>
+    <col min="4" max="4" width="52.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
